--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabellenblatt1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Chat GPT Test</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -45,25 +38,86 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -261,21 +315,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Updated by GitHub Actions: 2026-01-16T15:42:23.654559Z</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -1,123 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Tabellenblatt1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Updated by GitHub Actions: 2026-01-16T15:42:23.654559Z</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="2">
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,27 +277,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Updated by GitHub Actions: 2026-01-16T15:42:23.654559Z</t>
-        </is>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trending" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Trending" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ticker</t>
+          <t>Updated by GitHub Actions: 2026-01-17T07:32:47.185637Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-17T07:32:47.185637Z</t>
+          <t>Updated by GitHub Actions: 2026-01-18T07:33:28.048144Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-18T07:33:28.048144Z</t>
+          <t>Updated by GitHub Actions: 2026-01-19T07:50:38.796580Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-19T07:50:38.796580Z</t>
+          <t>Updated by GitHub Actions: 2026-01-20T07:49:49.939570Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-20T07:49:49.939570Z</t>
+          <t>Updated by GitHub Actions: 2026-01-21T07:51:11.395865Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-21T07:51:11.395865Z</t>
+          <t>Updated by GitHub Actions: 2026-01-22T07:49:46.909770Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-22T07:49:46.909770Z</t>
+          <t>Updated by GitHub Actions: 2026-01-23T07:45:10.411474Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-23T07:45:10.411474Z</t>
+          <t>Updated by GitHub Actions: 2026-01-24T07:33:18.199085Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-24T07:33:18.199085Z</t>
+          <t>Updated by GitHub Actions: 2026-01-25T07:38:33.440172Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-25T07:38:33.440172Z</t>
+          <t>Updated by GitHub Actions: 2026-01-26T07:49:01.708260Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-26T07:49:01.708260Z</t>
+          <t>Updated by GitHub Actions: 2026-01-27T07:49:40.598837Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-27T07:49:40.598837Z</t>
+          <t>Updated by GitHub Actions: 2026-01-28T07:48:06.676625Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-28T07:48:06.676625Z</t>
+          <t>Updated by GitHub Actions: 2026-01-29T08:04:14.641543Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-29T08:04:14.641543Z</t>
+          <t>Updated by GitHub Actions: 2026-01-30T08:03:36.529180Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-30T08:03:36.529180Z</t>
+          <t>Updated by GitHub Actions: 2026-01-31T07:49:55.087351Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-01-31T07:49:55.087351Z</t>
+          <t>Updated by GitHub Actions: 2026-02-01T07:58:35.962294Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-01T07:58:35.962294Z</t>
+          <t>Updated by GitHub Actions: 2026-02-02T09:11:39.206912Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-02T09:11:39.206912Z</t>
+          <t>Updated by GitHub Actions: 2026-02-03T08:05:13.796154Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-03T08:05:13.796154Z</t>
+          <t>Updated by GitHub Actions: 2026-02-04T08:06:08.320785Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-04T08:06:08.320785Z</t>
+          <t>Updated by GitHub Actions: 2026-02-05T09:29:51.604195Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-05T09:29:51.604195Z</t>
+          <t>Updated by GitHub Actions: 2026-02-06T09:10:23.890023Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-06T09:10:23.890023Z</t>
+          <t>Updated by GitHub Actions: 2026-02-07T07:54:02.705854Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/gpt.xlsx
+++ b/gpt.xlsx
@@ -479,7 +479,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Updated by GitHub Actions: 2026-02-07T07:54:02.705854Z</t>
+          <t>Updated by GitHub Actions: 2026-02-08T07:59:36.638411Z</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
